--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Thank you! :) </t>
   </si>
   <si>
-    <t xml:space="preserve">IF [safety] == 'done' THEN JUMP(Explanation) ELSE Load(Explanation), JUMP(Safety)</t>
+    <t xml:space="preserve">IF ([safety] == done) THEN JUMP(Explanation) ELSE (LOAD(Explanation), JUMP(Safety))</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -704,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="14"/>
       <c r="C33" s="0" t="s">
         <v>11</v>

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -266,9 +266,6 @@
     <t xml:space="preserve">Buy</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest.</t>
   </si>
   <si>
@@ -391,7 +388,7 @@
     <t xml:space="preserve">Thank you! :) </t>
   </si>
   <si>
-    <t xml:space="preserve">IF ([safety] == done) THEN JUMP(Explanation) ELSE (LOAD(Explanation), JUMP(Safety))</t>
+    <t xml:space="preserve">IF ([safety] == done) THEN  JUMP(Explanation) ELSE (Load(Explanation), JUMP(Safety))</t>
   </si>
 </sst>
 </file>
@@ -563,7 +560,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,6 +619,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -704,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,28 +993,28 @@
       <c r="B19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1018,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,42 +1034,42 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1074,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +1091,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,24 +1103,24 @@
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1125,10 +1130,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,54 +1142,54 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="14"/>
       <c r="C33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -709,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,6 +1164,9 @@
       <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="F31" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -272,39 +272,6 @@
     <t xml:space="preserve">GO(need_calmer)</t>
   </si>
   <si>
-    <t xml:space="preserve">need_calmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasttrack Calmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hustest du besonders abends und nachts? Hält der Husten dich vom Schlafen ab? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, der Husten hält mich vom Schlafen ab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(calmer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, mein Schlaf wird nicht durch meinen Husten gestört.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(tip)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calmer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product: clamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Wick HustenSirup]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(calmer_text)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -337,6 +304,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">need_calmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasttrack Calmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hustest du besonders abends und nachts? Hält der Husten dich vom Schlafen ab? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, der Husten hält mich vom Schlafen ab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO(calmer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, mein Schlaf wird nicht durch meinen Husten gestört.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO(tip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product: clamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Wick HustenSirup]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO(calmer_text)</t>
+  </si>
+  <si>
     <t xml:space="preserve">calmer_text</t>
   </si>
   <si>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Thank you! :) </t>
   </si>
   <si>
-    <t xml:space="preserve">IF ([safety] == done) THEN  JUMP(Explanation) ELSE (Load(Explanation), JUMP(Safety))</t>
+    <t xml:space="preserve">IF ([safety] == done) THEN  JUMP(Explanation) ELSE (LOAD(Explanation), JUMP(Safety))</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,19 +1002,22 @@
       <c r="E19" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1023,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,30 +1037,30 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1148,7 @@
         <v>75</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,10 +1165,10 @@
         <v>50</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1186,7 @@
       </c>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="14"/>
       <c r="C33" s="0" t="s">
         <v>11</v>

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">Buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest.</t>
@@ -709,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -994,30 +997,30 @@
         <v>49</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1026,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,42 +1040,42 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1082,10 +1085,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,10 +1097,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,24 +1109,24 @@
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1133,10 +1136,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,15 +1148,15 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>49</v>
@@ -1162,27 +1165,27 @@
         <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -1192,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -17,42 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Tamim:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Bei Produkt-Präsentation: "Wie kannst du dir so sicher sein, dass das Medikament besser ist als die anderen?" GuidelineExp - für Credibility
-Wenn 3mal Fasttrack, dann keine Detailfragen mehr.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,7 +366,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -461,13 +425,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -712,7 +669,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1218,6 +1175,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136D1AB7-2DDB-4912-B6C6-7335E80667AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AEAED-BA54-4968-BE6C-CE8A437A84D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -96,9 +96,6 @@
     <t>GO(tablet_final)</t>
   </si>
   <si>
-    <t>Super, Das klingt gut.</t>
-  </si>
-  <si>
     <t>GO(buy_solver)</t>
   </si>
   <si>
@@ -108,18 +105,9 @@
     <t>Product: Tablet</t>
   </si>
   <si>
-    <t>Bronchipret TP Filmtabletten</t>
-  </si>
-  <si>
-    <t>GO(tablet_text)</t>
-  </si>
-  <si>
     <t>SELECT * FROM Products WHERE PZN == '168478'</t>
   </si>
   <si>
-    <t>tablet_text</t>
-  </si>
-  <si>
     <t>TP steht für Thymian (Thymus vulgaris) und Primel (Primula Veris). Eine Starke Kombination, aber dennoch eher die Nummer 2 im Vergleich zum Sirup.</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
   </si>
   <si>
     <t>Sirup (vorher Tablette)</t>
-  </si>
-  <si>
-    <t>Bronchipret Saft TE (Sirup)</t>
   </si>
   <si>
     <t>GO(sirup_final_text)</t>
@@ -173,16 +158,10 @@
     </r>
   </si>
   <si>
-    <t>sirup_final_text</t>
-  </si>
-  <si>
     <t>tablet_final</t>
   </si>
   <si>
     <t>Tablet (vorher Sirup)</t>
-  </si>
-  <si>
-    <t>GO(tablet_final_text)</t>
   </si>
   <si>
     <r>
@@ -217,9 +196,6 @@
     </r>
   </si>
   <si>
-    <t>tablet_final_text</t>
-  </si>
-  <si>
     <t>buy_solver</t>
   </si>
   <si>
@@ -227,9 +203,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest.</t>
   </si>
   <si>
     <t>GO(need_calmer)</t>
@@ -294,15 +267,9 @@
     <t>Product: clamer</t>
   </si>
   <si>
-    <t>[Wick HustenSirup]</t>
-  </si>
-  <si>
     <t>GO(calmer_text)</t>
   </si>
   <si>
-    <t>calmer_text</t>
-  </si>
-  <si>
     <t>Den Hustenstiller kannst du am Abend einnehmen, damit der Husten dich nicht vom Schlaf abhält. Tagsüber solltest du dann den Hustenlöser anwenden, damit du den Husten langfristig los wirst und nicht nur kurzfristig unterdrückst.</t>
   </si>
   <si>
@@ -315,9 +282,6 @@
     <t>Ich möchte nur den Hustenstiller kaufen!</t>
   </si>
   <si>
-    <t>Super, das klingt gut.</t>
-  </si>
-  <si>
     <t>GO(buy_calmer)</t>
   </si>
   <si>
@@ -345,9 +309,6 @@
     <t>One Last thing</t>
   </si>
   <si>
-    <t>Versuch viel Flüssigkeit zu trinken: 3-4 Liter pro Tag. Ein gut hydrierter Körper hat es einfaches Schleim abzuhusten. + [Product Cream]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thank you! :) </t>
   </si>
   <si>
@@ -358,6 +319,21 @@
   </si>
   <si>
     <t>CART(), GO(buy_solver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, danke. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn du wissen möchtest, wie du das Medikament anwenden musst, füge es deinem Einkaufswagen zu, am Ende besprechen wir dann jedes Medikament Schritt für Schritt. </t>
+  </si>
+  <si>
+    <t>CART(), GO(buy_calmer)</t>
+  </si>
+  <si>
+    <t>CART(), GO(tip)</t>
+  </si>
+  <si>
+    <t>Versuch viel Flüssigkeit zu trinken: 3-4 Liter pro Tag. Ein gut hydrierter Körper hat es einfaches Schleim abzuhusten.</t>
   </si>
 </sst>
 </file>
@@ -926,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1029,10 +1005,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
@@ -1048,12 +1024,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
@@ -1061,246 +1037,239 @@
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="10" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" s="14"/>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="14"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" s="14"/>
@@ -1308,83 +1277,76 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="14"/>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="102" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="14"/>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="14"/>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -1394,10 +1356,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AEAED-BA54-4968-BE6C-CE8A437A84D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525B62C0-1E68-4BCF-9A8B-23DEECA9FA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -87,18 +87,12 @@
     <t>SELECT * FROM Products WHERE PZN == '5566232'</t>
   </si>
   <si>
-    <t xml:space="preserve">TE steht für Thymian (Thymus vulgaris) und Efeu-Extrakt (Hedera helix) - die stärkste Kombination um Schleim zu lösen. </t>
-  </si>
-  <si>
     <t>Ich mag Sirupe nicht, ich würde lieber Tabletten nehmen. Auch wenn sie nicht ganz so stark sind, wie der Sirup.</t>
   </si>
   <si>
     <t>GO(tablet_final)</t>
   </si>
   <si>
-    <t>GO(buy_solver)</t>
-  </si>
-  <si>
     <t>tablet</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>SELECT * FROM Products WHERE PZN == '168478'</t>
   </si>
   <si>
-    <t>TP steht für Thymian (Thymus vulgaris) und Primel (Primula Veris). Eine Starke Kombination, aber dennoch eher die Nummer 2 im Vergleich zum Sirup.</t>
-  </si>
-  <si>
     <t>Auch unterwegs nehme ich lieber einen Sirup. Hauptsache es hat die Stärkste Wirkung!</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
   </si>
   <si>
     <t>Sirup (vorher Tablette)</t>
-  </si>
-  <si>
-    <t>GO(sirup_final_text)</t>
   </si>
   <si>
     <r>
@@ -196,13 +184,7 @@
     </r>
   </si>
   <si>
-    <t>buy_solver</t>
-  </si>
-  <si>
     <t>Buy</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>GO(need_calmer)</t>
@@ -267,9 +249,6 @@
     <t>Product: clamer</t>
   </si>
   <si>
-    <t>GO(calmer_text)</t>
-  </si>
-  <si>
     <t>Den Hustenstiller kannst du am Abend einnehmen, damit der Husten dich nicht vom Schlaf abhält. Tagsüber solltest du dann den Hustenlöser anwenden, damit du den Husten langfristig los wirst und nicht nur kurzfristig unterdrückst.</t>
   </si>
   <si>
@@ -318,9 +297,6 @@
     <t>Add to cart.</t>
   </si>
   <si>
-    <t>CART(), GO(buy_solver)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nein, danke. </t>
   </si>
   <si>
@@ -334,6 +310,15 @@
   </si>
   <si>
     <t>Versuch viel Flüssigkeit zu trinken: 3-4 Liter pro Tag. Ein gut hydrierter Körper hat es einfaches Schleim abzuhusten.</t>
+  </si>
+  <si>
+    <t>CART(), GO(need_calmer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP steht für Thymian (Thymus vulgaris) und Primel (Primula Veris). Eine Starke Kombination, aber dennoch eher die Nummer 2 im Vergleich zum Sirup. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE steht für Thymian (Thymus vulgaris) und Efeu-Extrakt (Hedera helix) - die stärkste Kombination um Schleim zu lösen. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. </t>
   </si>
 </sst>
 </file>
@@ -388,7 +373,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +390,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,7 +443,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -513,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -981,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -992,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
@@ -1005,10 +981,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
@@ -1018,28 +994,28 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1047,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
@@ -1058,30 +1034,28 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1089,10 +1063,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1100,28 +1074,28 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1129,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1140,96 +1114,89 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B22" s="14"/>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1238,38 +1205,38 @@
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="14"/>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" s="14"/>
@@ -1277,40 +1244,39 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="14"/>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="3" t="s">
-        <v>41</v>
+      <c r="E28" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1318,58 +1284,47 @@
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B31" s="14"/>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" s="14"/>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/scenarios/cough/processes/Fasttrack.xlsx
+++ b/scenarios/cough/processes/Fasttrack.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">fasttrackStandard</t>
@@ -478,7 +484,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,6 +507,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -625,10 +635,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,416 +674,422 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>18</v>
+      <c r="A27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
